--- a/data/1.2/aunt(3, 3).xlsx
+++ b/data/1.2/aunt(3, 3).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>serviceScore</t>
   </si>
@@ -55,31 +55,31 @@
     <t>id</t>
   </si>
   <si>
-    <t>[30, 9, 49, 40]</t>
-  </si>
-  <si>
-    <t>[39, 20, 44]</t>
+    <t>[30, 49, 40]</t>
+  </si>
+  <si>
+    <t>[39, 20, 44, 43]</t>
   </si>
   <si>
     <t>[6]</t>
   </si>
   <si>
-    <t>[42, 26, 43]</t>
-  </si>
-  <si>
-    <t>[13, 18]</t>
-  </si>
-  <si>
-    <t>[17, 31, 21]</t>
+    <t>[42, 0]</t>
+  </si>
+  <si>
+    <t>[13, 10]</t>
+  </si>
+  <si>
+    <t>[17, 22]</t>
   </si>
   <si>
     <t>[48]</t>
   </si>
   <si>
-    <t>[2, 0, 27]</t>
-  </si>
-  <si>
-    <t>[32, 22]</t>
+    <t>[2, 45, 38, 18, 27, 21]</t>
+  </si>
+  <si>
+    <t>[32, 46, 26, 3, 16]</t>
   </si>
   <si>
     <t>[47, 25]</t>
@@ -88,76 +88,73 @@
     <t>[15, 36]</t>
   </si>
   <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>[29, 46, 33, 10]</t>
-  </si>
-  <si>
-    <t>[35, 5, 41]</t>
-  </si>
-  <si>
-    <t>[11, 28, 34]</t>
-  </si>
-  <si>
-    <t>[14]</t>
-  </si>
-  <si>
-    <t>[24, 4]</t>
-  </si>
-  <si>
-    <t>[1, 3, 19]</t>
-  </si>
-  <si>
-    <t>[12, 23, 37]</t>
-  </si>
-  <si>
-    <t>[7, 45, 38, 16]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 7.0, 10.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 5.0]</t>
+    <t>[8, 31]</t>
+  </si>
+  <si>
+    <t>[29, 33, 14]</t>
+  </si>
+  <si>
+    <t>[35, 5]</t>
+  </si>
+  <si>
+    <t>[11, 9]</t>
+  </si>
+  <si>
+    <t>[41]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[1, 19]</t>
+  </si>
+  <si>
+    <t>[12, 28, 34, 23, 37]</t>
+  </si>
+  <si>
+    <t>[7, 4]</t>
+  </si>
+  <si>
+    <t>[0.0, 7.0, 10.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0, 5.0, 7.5]</t>
   </si>
   <si>
     <t>[1.0]</t>
   </si>
   <si>
-    <t>[1.0, 5.0, 7.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 6.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 7.0, 9.0]</t>
-  </si>
-  <si>
     <t>[1.0, 5.0]</t>
   </si>
   <si>
+    <t>[1.0, 7.0]</t>
+  </si>
+  <si>
     <t>[0.0, 5.0]</t>
   </si>
   <si>
-    <t>[0.0, 2.0, 4.0, 7.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 9.0]</t>
-  </si>
-  <si>
-    <t>[4.0]</t>
+    <t>[1.0, 2.0, 5.0, 6.0, 7.0, 9.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 2.0, 5.0, 6.0, 8.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 4.0, 4.5]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0]</t>
+  </si>
+  <si>
+    <t>[9.0]</t>
+  </si>
+  <si>
+    <t>[0.0]</t>
   </si>
   <si>
     <t>[0.0, 9.0]</t>
   </si>
   <si>
-    <t>[0.0, 6.0, 9.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 7.0, 9.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 5.0, 8.0]</t>
+    <t>[1.0, 2.0, 5.0, 7.0, 9.0]</t>
   </si>
 </sst>
 </file>
@@ -582,10 +579,10 @@
         <v>-18.471</v>
       </c>
       <c r="G2">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -617,13 +614,13 @@
         <v>-7145</v>
       </c>
       <c r="E3">
-        <v>5.821</v>
+        <v>4.122</v>
       </c>
       <c r="F3">
-        <v>-5.049</v>
+        <v>-6.269</v>
       </c>
       <c r="G3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -664,7 +661,7 @@
         <v>-15.024</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -699,13 +696,13 @@
         <v>-3340</v>
       </c>
       <c r="E5">
-        <v>4.122</v>
+        <v>-4.693</v>
       </c>
       <c r="F5">
-        <v>-6.269</v>
+        <v>-12.716</v>
       </c>
       <c r="G5">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -740,13 +737,13 @@
         <v>4144</v>
       </c>
       <c r="E6">
-        <v>-2.71</v>
+        <v>-0.271</v>
       </c>
       <c r="F6">
-        <v>-5.082</v>
+        <v>-0.178</v>
       </c>
       <c r="G6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -787,10 +784,10 @@
         <v>-4.728</v>
       </c>
       <c r="G7">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -828,7 +825,7 @@
         <v>-17.706</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -863,22 +860,22 @@
         <v>-7249</v>
       </c>
       <c r="E9">
-        <v>-4.624</v>
+        <v>0.572</v>
       </c>
       <c r="F9">
-        <v>-9.316000000000001</v>
+        <v>-4.728</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -904,13 +901,13 @@
         <v>-2321</v>
       </c>
       <c r="E10">
-        <v>0.572</v>
+        <v>-2.214</v>
       </c>
       <c r="F10">
-        <v>-4.728</v>
+        <v>-13.722</v>
       </c>
       <c r="G10">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -919,7 +916,7 @@
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -951,7 +948,7 @@
         <v>-27.171</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -960,7 +957,7 @@
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -992,7 +989,7 @@
         <v>-27.171</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1001,7 +998,7 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1027,13 +1024,13 @@
         <v>11667</v>
       </c>
       <c r="E13">
-        <v>-5.678</v>
+        <v>-0.059</v>
       </c>
       <c r="F13">
-        <v>-5.303</v>
+        <v>-0.073</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1042,7 +1039,7 @@
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1068,13 +1065,13 @@
         <v>12411</v>
       </c>
       <c r="E14">
-        <v>-0.271</v>
+        <v>-7.938</v>
       </c>
       <c r="F14">
-        <v>-0.178</v>
+        <v>11.418</v>
       </c>
       <c r="G14">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1109,13 +1106,13 @@
         <v>-3272</v>
       </c>
       <c r="E15">
-        <v>20.906</v>
+        <v>12.127</v>
       </c>
       <c r="F15">
-        <v>-7.931</v>
+        <v>-8.696</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1150,13 +1147,13 @@
         <v>-4126</v>
       </c>
       <c r="E16">
-        <v>-17.577</v>
+        <v>-8.818</v>
       </c>
       <c r="F16">
-        <v>-12.697</v>
+        <v>-16.592</v>
       </c>
       <c r="G16">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1165,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1191,13 +1188,13 @@
         <v>5152</v>
       </c>
       <c r="E17">
-        <v>-7.938</v>
+        <v>20.906</v>
       </c>
       <c r="F17">
-        <v>11.418</v>
+        <v>-7.931</v>
       </c>
       <c r="G17">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1232,13 +1229,13 @@
         <v>-26497</v>
       </c>
       <c r="E18">
-        <v>10.169</v>
+        <v>-0.416</v>
       </c>
       <c r="F18">
-        <v>-14.392</v>
+        <v>-17.129</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>1.5</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1279,7 +1276,7 @@
         <v>-13.712</v>
       </c>
       <c r="G19">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1320,7 +1317,7 @@
         <v>-7.162</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1355,13 +1352,13 @@
         <v>-12518</v>
       </c>
       <c r="E21">
-        <v>-2.214</v>
+        <v>10.169</v>
       </c>
       <c r="F21">
-        <v>-13.722</v>
+        <v>-14.392</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1370,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>0</v>
